--- a/public/419.xlsx
+++ b/public/419.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code_House\Reborn_Fdu\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801FD5D9-3EA6-4803-B9F5-D37083149FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFC57F7-E218-4225-9197-DB9E98CAE963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6251,6 +6251,24 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6273,24 +6291,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6623,10 +6623,10 @@
   <dimension ref="A1:AJ130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AE109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X85" sqref="X85"/>
+      <selection pane="bottomRight" activeCell="AJ112" sqref="AJ112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="18" customHeight="1"/>
@@ -6668,107 +6668,107 @@
     <col min="36" max="36" width="18.5" style="159" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="190" customFormat="1" ht="22.5">
-      <c r="A1" s="186" t="s">
+    <row r="1" spans="1:36" s="182" customFormat="1" ht="22.5">
+      <c r="A1" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="186" t="s">
+      <c r="C1" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="186" t="s">
+      <c r="D1" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="187" t="s">
+      <c r="E1" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="188" t="s">
+      <c r="F1" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="188" t="s">
+      <c r="G1" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="188" t="s">
+      <c r="H1" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="186" t="s">
+      <c r="I1" s="178" t="s">
         <v>1064</v>
       </c>
-      <c r="J1" s="186" t="s">
+      <c r="J1" s="178" t="s">
         <v>1065</v>
       </c>
-      <c r="K1" s="186" t="s">
+      <c r="K1" s="178" t="s">
         <v>1066</v>
       </c>
-      <c r="L1" s="186" t="s">
+      <c r="L1" s="178" t="s">
         <v>1067</v>
       </c>
-      <c r="M1" s="186" t="s">
+      <c r="M1" s="178" t="s">
         <v>1068</v>
       </c>
-      <c r="N1" s="186" t="s">
+      <c r="N1" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="188" t="s">
+      <c r="O1" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="188" t="s">
+      <c r="P1" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="188" t="s">
+      <c r="Q1" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="188" t="s">
+      <c r="R1" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="189" t="s">
+      <c r="S1" s="181" t="s">
         <v>1069</v>
       </c>
-      <c r="U1" s="186" t="s">
+      <c r="U1" s="178" t="s">
         <v>1070</v>
       </c>
-      <c r="V1" s="186" t="s">
+      <c r="V1" s="178" t="s">
         <v>1071</v>
       </c>
-      <c r="W1" s="186" t="s">
+      <c r="W1" s="178" t="s">
         <v>1072</v>
       </c>
-      <c r="X1" s="186" t="s">
+      <c r="X1" s="178" t="s">
         <v>1073</v>
       </c>
-      <c r="Y1" s="186" t="s">
+      <c r="Y1" s="178" t="s">
         <v>1074</v>
       </c>
-      <c r="Z1" s="188" t="s">
+      <c r="Z1" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="189" t="s">
+      <c r="AA1" s="181" t="s">
         <v>1075</v>
       </c>
-      <c r="AC1" s="186" t="s">
+      <c r="AC1" s="178" t="s">
         <v>1076</v>
       </c>
-      <c r="AD1" s="186" t="s">
+      <c r="AD1" s="178" t="s">
         <v>1077</v>
       </c>
-      <c r="AE1" s="186" t="s">
+      <c r="AE1" s="178" t="s">
         <v>1078</v>
       </c>
-      <c r="AF1" s="186" t="s">
+      <c r="AF1" s="178" t="s">
         <v>1079</v>
       </c>
-      <c r="AG1" s="186" t="s">
+      <c r="AG1" s="178" t="s">
         <v>1080</v>
       </c>
-      <c r="AH1" s="191" t="s">
+      <c r="AH1" s="183" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="191" t="s">
+      <c r="AI1" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="AJ1" s="191" t="s">
+      <c r="AJ1" s="183" t="s">
         <v>11</v>
       </c>
     </row>
@@ -16939,7 +16939,7 @@
   <customSheetViews>
     <customSheetView guid="{BCDA923B-10B4-45A3-AB4E-E599575D8D5B}" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="E1:E129" xr:uid="{7F57D70F-1B7C-42D7-BEAB-0E0DEC85B180}"/>
+      <autoFilter ref="E1:E129" xr:uid="{E72B1DF8-5ABF-4040-80EC-9D27BFC483D8}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="25" type="noConversion"/>
@@ -17433,14 +17433,14 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="178"/>
-      <c r="B13" s="179"/>
-      <c r="C13" s="179"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="179"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="179"/>
-      <c r="H13" s="179"/>
+      <c r="A13" s="184"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="185"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="185"/>
+      <c r="G13" s="185"/>
+      <c r="H13" s="185"/>
       <c r="J13" s="158">
         <f t="shared" ref="J13:O13" si="0">SUM(J3:J12)</f>
         <v>10</v>
@@ -17467,14 +17467,14 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="179"/>
-      <c r="B16" s="179"/>
-      <c r="C16" s="179"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="179"/>
+      <c r="A16" s="185"/>
+      <c r="B16" s="185"/>
+      <c r="C16" s="185"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
     </row>
     <row r="17" spans="9:29">
       <c r="I17" s="159"/>
@@ -17597,50 +17597,50 @@
     </row>
     <row r="9" spans="1:36" ht="12.75">
       <c r="A9" s="159"/>
-      <c r="B9" s="179" t="s">
+      <c r="B9" s="185" t="s">
         <v>676</v>
       </c>
-      <c r="C9" s="179"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="179" t="s">
+      <c r="C9" s="185"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="185" t="s">
         <v>677</v>
       </c>
-      <c r="I9" s="179"/>
-      <c r="J9" s="179"/>
-      <c r="K9" s="179"/>
-      <c r="L9" s="179"/>
-      <c r="M9" s="181"/>
-      <c r="N9" s="179" t="s">
+      <c r="I9" s="185"/>
+      <c r="J9" s="185"/>
+      <c r="K9" s="185"/>
+      <c r="L9" s="185"/>
+      <c r="M9" s="187"/>
+      <c r="N9" s="185" t="s">
         <v>678</v>
       </c>
-      <c r="O9" s="181"/>
-      <c r="P9" s="179"/>
-      <c r="Q9" s="179"/>
-      <c r="R9" s="179"/>
-      <c r="S9" s="181"/>
+      <c r="O9" s="187"/>
+      <c r="P9" s="185"/>
+      <c r="Q9" s="185"/>
+      <c r="R9" s="185"/>
+      <c r="S9" s="187"/>
       <c r="T9" t="s">
         <v>679</v>
       </c>
-      <c r="Z9" s="179" t="s">
+      <c r="Z9" s="185" t="s">
         <v>680</v>
       </c>
-      <c r="AA9" s="181"/>
-      <c r="AB9" s="179" t="s">
+      <c r="AA9" s="187"/>
+      <c r="AB9" s="185" t="s">
         <v>681</v>
       </c>
-      <c r="AC9" s="181"/>
-      <c r="AD9" s="179" t="s">
+      <c r="AC9" s="187"/>
+      <c r="AD9" s="185" t="s">
         <v>682</v>
       </c>
-      <c r="AE9" s="179"/>
-      <c r="AF9" s="181"/>
-      <c r="AG9" s="179" t="s">
+      <c r="AE9" s="185"/>
+      <c r="AF9" s="187"/>
+      <c r="AG9" s="185" t="s">
         <v>683</v>
       </c>
-      <c r="AH9" s="181"/>
+      <c r="AH9" s="187"/>
       <c r="AI9" t="s">
         <v>684</v>
       </c>
@@ -18391,7 +18391,7 @@
       <c r="AD16" s="160" t="s">
         <v>806</v>
       </c>
-      <c r="AE16" s="182" t="s">
+      <c r="AE16" s="188" t="s">
         <v>807</v>
       </c>
       <c r="AF16" s="166" t="s">
@@ -18495,7 +18495,7 @@
       <c r="AD17" t="s">
         <v>824</v>
       </c>
-      <c r="AE17" s="181"/>
+      <c r="AE17" s="187"/>
       <c r="AF17" t="s">
         <v>825</v>
       </c>
@@ -18597,7 +18597,7 @@
       <c r="AD18" t="s">
         <v>841</v>
       </c>
-      <c r="AE18" s="181"/>
+      <c r="AE18" s="187"/>
       <c r="AF18" t="s">
         <v>842</v>
       </c>
@@ -18678,7 +18678,7 @@
         <v>45</v>
       </c>
       <c r="Y19" s="169"/>
-      <c r="AE19" s="183"/>
+      <c r="AE19" s="189"/>
     </row>
     <row r="20" spans="1:36" ht="12.75">
       <c r="A20" s="169"/>
@@ -18717,7 +18717,7 @@
       <c r="AD20" t="s">
         <v>851</v>
       </c>
-      <c r="AE20" s="181"/>
+      <c r="AE20" s="187"/>
       <c r="AF20" t="s">
         <v>852</v>
       </c>
@@ -18739,10 +18739,10 @@
       <c r="B21" s="163" t="s">
         <v>857</v>
       </c>
-      <c r="C21" s="180" t="s">
+      <c r="C21" s="186" t="s">
         <v>858</v>
       </c>
-      <c r="D21" s="184" t="s">
+      <c r="D21" s="190" t="s">
         <v>859</v>
       </c>
       <c r="E21" s="162"/>
@@ -18776,7 +18776,7 @@
       <c r="AD21" t="s">
         <v>864</v>
       </c>
-      <c r="AE21" s="181"/>
+      <c r="AE21" s="187"/>
       <c r="AF21" t="s">
         <v>865</v>
       </c>
@@ -18798,8 +18798,8 @@
       <c r="B22" s="168" t="s">
         <v>870</v>
       </c>
-      <c r="C22" s="181"/>
-      <c r="D22" s="181"/>
+      <c r="C22" s="187"/>
+      <c r="D22" s="187"/>
       <c r="E22" s="162"/>
       <c r="F22" s="162"/>
       <c r="G22" s="162" t="s">
@@ -19136,24 +19136,24 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="185" t="s">
         <v>920</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="179" t="s">
+      <c r="B2" s="187"/>
+      <c r="C2" s="185" t="s">
         <v>677</v>
       </c>
-      <c r="D2" s="181"/>
+      <c r="D2" s="187"/>
       <c r="E2" t="s">
         <v>921</v>
       </c>
       <c r="F2" t="s">
         <v>922</v>
       </c>
-      <c r="G2" s="179" t="s">
+      <c r="G2" s="185" t="s">
         <v>923</v>
       </c>
-      <c r="H2" s="181"/>
+      <c r="H2" s="187"/>
       <c r="I2" t="s">
         <v>680</v>
       </c>
@@ -19736,10 +19736,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="191" t="s">
         <v>984</v>
       </c>
-      <c r="B1" s="179"/>
+      <c r="B1" s="185"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="174" t="s">

--- a/public/419.xlsx
+++ b/public/419.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code_House\Reborn_Fdu\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFC57F7-E218-4225-9197-DB9E98CAE963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1BE11E-6A8F-444E-B0B5-DCFC9B404D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6623,10 +6623,10 @@
   <dimension ref="A1:AJ130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AE109" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="U70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AJ112" sqref="AJ112"/>
+      <selection pane="bottomRight" activeCell="Z75" sqref="Z75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="18" customHeight="1"/>
@@ -16939,7 +16939,7 @@
   <customSheetViews>
     <customSheetView guid="{BCDA923B-10B4-45A3-AB4E-E599575D8D5B}" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="E1:E129" xr:uid="{E72B1DF8-5ABF-4040-80EC-9D27BFC483D8}"/>
+      <autoFilter ref="E1:E129" xr:uid="{F82493A9-8FF7-4CF4-AC2D-72EE0AB02801}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="25" type="noConversion"/>

--- a/public/419.xlsx
+++ b/public/419.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code_House\Reborn_Fdu\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1BE11E-6A8F-444E-B0B5-DCFC9B404D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1A8832-ABF6-49AD-8BDB-044D28D4488E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2781" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2781" uniqueCount="1083">
   <si>
     <t>编号</t>
   </si>
@@ -5283,6 +5283,10 @@
   </si>
   <si>
     <t>NONE</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次一定（下次竞选事件概率提升）。</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -6623,10 +6627,10 @@
   <dimension ref="A1:AJ130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="U70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AB7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z75" sqref="Z75"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="18" customHeight="1"/>
@@ -12651,7 +12655,7 @@
         <v>4</v>
       </c>
       <c r="Z74" s="103" t="s">
-        <v>376</v>
+        <v>1082</v>
       </c>
       <c r="AA74" s="106" t="s">
         <v>377</v>
@@ -16939,7 +16943,7 @@
   <customSheetViews>
     <customSheetView guid="{BCDA923B-10B4-45A3-AB4E-E599575D8D5B}" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="E1:E129" xr:uid="{F82493A9-8FF7-4CF4-AC2D-72EE0AB02801}"/>
+      <autoFilter ref="E1:E129" xr:uid="{C350076E-036C-484A-8F83-1157B7095BD1}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="25" type="noConversion"/>
